--- a/biology/Médecine/Syndrome_d'Eagle/Syndrome_d'Eagle.xlsx
+++ b/biology/Médecine/Syndrome_d'Eagle/Syndrome_d'Eagle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Eagle</t>
+          <t>Syndrome_d'Eagle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome d'Eagle, ou syndrome stylo-carotidien, ou syndrome du processus styloïde allongé ou syndrome de l'américain, est une cause rare de douleur latérocervicale irradiant à la face, due à une hypertrophie anormale de l'apophyse styloïde de l'os temporal ou à une ossification du ligament stylo-hyoïdien.
 La douleur est vive, fulgurante, provoquée par la déglutition, la mobilisation de la mandibule ou lors des mouvements de rotation de la tête. Elle débute sous l'angle mandibulaire et irradie dans la fosse amygdalienne, l'articulation temporomandibulaire et la base de la langue. Elle est reproduite lors de la pression sur l'artère carotide interne et les structures voisines. Une zone gâchette dans la fosse amygdalienne peut être présente.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Eagle</t>
+          <t>Syndrome_d'Eagle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le syndrome d'Eagle doit rester un diagnostic d'exclusion. On doit notamment avoir éliminé :
 Névralgie du glossopharyngien : douleur paroxystiques à type de choc, alors que dans le syndrome d'Eagle, les douleurs sont liées aux mouvements.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Eagle</t>
+          <t>Syndrome_d'Eagle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une série d'injections d'un anesthésique local ou d'un corticostéroïde dans la région d'ancrage du ligament stylo-hyoïdien peut être efficace.
 La gabapentine peut également être utilisée per os, ainsi que la carbamazépine ou la phénytoïne.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Eagle</t>
+          <t>Syndrome_d'Eagle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Syndromes douloureux atypiques, Stephen D.Waldman, Elsevier,  (ISBN 2-84299-760-3)</t>
         </is>
